--- a/27 From Jobstown to Clare Hall.xlsx
+++ b/27 From Jobstown to Clare Hall.xlsx
@@ -415,7 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,6 +430,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -452,9 +458,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -795,7 +802,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="15.75">
+      <c r="A5" s="2">
+        <v>53.279148999999997</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-6.401745</v>
+      </c>
+      <c r="C5">
+        <v>27</v>
+      </c>
       <c r="D5">
         <v>2353</v>
       </c>
@@ -806,7 +822,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="15.75">
+      <c r="A6" s="2">
+        <v>53.280819000000001</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-6.4036169999999997</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
       <c r="D6">
         <v>4643</v>
       </c>
@@ -817,7 +842,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="15.75">
+      <c r="A7" s="2">
+        <v>53.283707</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-6.4026540000000001</v>
+      </c>
+      <c r="C7">
+        <v>27</v>
+      </c>
       <c r="D7">
         <v>4644</v>
       </c>
@@ -828,7 +862,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="15.75">
+      <c r="A8" s="2">
+        <v>53.284861999999997</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-6.4059039999999996</v>
+      </c>
+      <c r="C8">
+        <v>27</v>
+      </c>
       <c r="D8">
         <v>4645</v>
       </c>
@@ -839,7 +882,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="15.75">
+      <c r="A9" s="2">
+        <v>53.286419000000002</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-6.4070210000000003</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
       <c r="D9">
         <v>4440</v>
       </c>
@@ -850,7 +902,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="2">
+        <v>53.288867000000003</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-6.4040850000000002</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
       <c r="D10">
         <v>2628</v>
       </c>
@@ -861,7 +922,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="15.75">
+      <c r="A11" s="2">
+        <v>53.288195000000002</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-6.3986159999999996</v>
+      </c>
+      <c r="C11">
+        <v>27</v>
+      </c>
       <c r="D11">
         <v>2629</v>
       </c>
@@ -872,7 +942,16 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="15.75">
+      <c r="A12" s="2">
+        <v>53.286755999999997</v>
+      </c>
+      <c r="B12" s="2">
+        <v>-6.3963039999999998</v>
+      </c>
+      <c r="C12">
+        <v>27</v>
+      </c>
       <c r="D12">
         <v>6095</v>
       </c>
@@ -883,7 +962,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="15.75">
+      <c r="A13" s="2">
+        <v>53.284807999999998</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-6.3934819999999997</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
       <c r="D13">
         <v>7062</v>
       </c>
@@ -894,7 +982,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="15.75">
+      <c r="A14" s="2">
+        <v>53.283261000000003</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-6.3909560000000001</v>
+      </c>
+      <c r="C14">
+        <v>27</v>
+      </c>
       <c r="D14">
         <v>6075</v>
       </c>
@@ -905,7 +1002,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="15.75">
+      <c r="A15" s="2">
+        <v>53.282229000000001</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-6.3889649999999998</v>
+      </c>
+      <c r="C15">
+        <v>27</v>
+      </c>
       <c r="D15">
         <v>2631</v>
       </c>
@@ -916,7 +1022,16 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="15.75">
+      <c r="A16" s="2">
+        <v>53.283571000000002</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-6.3843550000000002</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
       <c r="D16">
         <v>2359</v>
       </c>
@@ -927,7 +1042,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="4:6">
+    <row r="17" spans="1:6" ht="15.75">
+      <c r="A17" s="2">
+        <v>53.284708000000002</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-6.3796580000000001</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
       <c r="D17">
         <v>2360</v>
       </c>
@@ -938,7 +1062,16 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="4:6">
+    <row r="18" spans="1:6" ht="15.75">
+      <c r="A18" s="2">
+        <v>53.286554000000002</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-6.3747790000000002</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
       <c r="D18">
         <v>4348</v>
       </c>
@@ -949,7 +1082,16 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="4:6">
+    <row r="19" spans="1:6" ht="15.75">
+      <c r="A19" s="2">
+        <v>53.289428000000001</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-6.3742539999999996</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
       <c r="D19">
         <v>4646</v>
       </c>
@@ -960,7 +1102,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="4:6">
+    <row r="20" spans="1:6" ht="15.75">
+      <c r="A20" s="2">
+        <v>53.290050999999998</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-6.3715210000000004</v>
+      </c>
+      <c r="C20">
+        <v>27</v>
+      </c>
       <c r="D20">
         <v>4647</v>
       </c>
@@ -971,7 +1122,10 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="4:6">
+    <row r="21" spans="1:6">
+      <c r="C21">
+        <v>27</v>
+      </c>
       <c r="D21">
         <v>2346</v>
       </c>
@@ -982,7 +1136,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="4:6">
+    <row r="22" spans="1:6">
+      <c r="C22">
+        <v>27</v>
+      </c>
       <c r="D22">
         <v>4435</v>
       </c>
@@ -993,7 +1150,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="4:6">
+    <row r="23" spans="1:6" ht="15.75">
+      <c r="A23" s="2">
+        <v>53.289115000000002</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-6.3577269999999997</v>
+      </c>
+      <c r="C23">
+        <v>27</v>
+      </c>
       <c r="D23">
         <v>2632</v>
       </c>
@@ -1004,7 +1170,16 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="4:6">
+    <row r="24" spans="1:6" ht="15.75">
+      <c r="A24" s="2">
+        <v>53.294088000000002</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-6.3556619999999997</v>
+      </c>
+      <c r="C24">
+        <v>27</v>
+      </c>
       <c r="D24">
         <v>2633</v>
       </c>
@@ -1015,7 +1190,16 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="4:6">
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="2">
+        <v>53.298577999999999</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-6.3541359999999996</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
       <c r="D25">
         <v>2369</v>
       </c>
@@ -1026,7 +1210,16 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="4:6">
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="2">
+        <v>53.300866999999997</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-6.3530090000000001</v>
+      </c>
+      <c r="C26">
+        <v>27</v>
+      </c>
       <c r="D26">
         <v>2370</v>
       </c>
@@ -1037,7 +1230,16 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="4:6">
+    <row r="27" spans="1:6" ht="15.75">
+      <c r="A27" s="2">
+        <v>53.303396999999997</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-6.3513289999999998</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
       <c r="D27">
         <v>2371</v>
       </c>
@@ -1048,7 +1250,16 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="4:6">
+    <row r="28" spans="1:6" ht="15.75">
+      <c r="A28" s="2">
+        <v>53.307251999999998</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-6.3477249999999996</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
       <c r="D28">
         <v>2372</v>
       </c>
@@ -1059,7 +1270,16 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="4:6">
+    <row r="29" spans="1:6" ht="15.75">
+      <c r="A29" s="2">
+        <v>53.310712000000002</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-6.3447360000000002</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
       <c r="D29">
         <v>2373</v>
       </c>
@@ -1070,7 +1290,16 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="4:6">
+    <row r="30" spans="1:6" ht="15.75">
+      <c r="A30" s="2">
+        <v>53.316046999999998</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-6.3341339999999997</v>
+      </c>
+      <c r="C30">
+        <v>27</v>
+      </c>
       <c r="D30">
         <v>2377</v>
       </c>
@@ -1081,7 +1310,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="4:6">
+    <row r="31" spans="1:6" ht="15.75">
+      <c r="A31" s="2">
+        <v>53.318531</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-6.3324939999999996</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
       <c r="D31">
         <v>2378</v>
       </c>
@@ -1092,7 +1330,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="4:6">
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="2">
+        <v>53.321700999999997</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-6.3305319999999998</v>
+      </c>
+      <c r="C32">
+        <v>27</v>
+      </c>
       <c r="D32">
         <v>2183</v>
       </c>
@@ -1103,7 +1350,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="4:6">
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="2">
+        <v>53.322989</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-6.3291180000000002</v>
+      </c>
+      <c r="C33">
+        <v>27</v>
+      </c>
       <c r="D33">
         <v>2184</v>
       </c>
@@ -1114,7 +1370,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="4:6">
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="2">
+        <v>53.324260000000002</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-6.3275709999999998</v>
+      </c>
+      <c r="C34">
+        <v>27</v>
+      </c>
       <c r="D34">
         <v>2185</v>
       </c>
@@ -1125,7 +1390,16 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="4:6">
+    <row r="35" spans="1:6" ht="15.75">
+      <c r="A35" s="2">
+        <v>53.325049999999997</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-6.3186689999999999</v>
+      </c>
+      <c r="C35">
+        <v>27</v>
+      </c>
       <c r="D35">
         <v>7043</v>
       </c>
@@ -1136,7 +1410,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="4:6">
+    <row r="36" spans="1:6" ht="15.75">
+      <c r="A36" s="2">
+        <v>53.325656000000002</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-6.3167239999999998</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
       <c r="D36">
         <v>1424</v>
       </c>
@@ -1147,7 +1430,16 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="4:6">
+    <row r="37" spans="1:6" ht="15.75">
+      <c r="A37" s="2">
+        <v>53.326926999999998</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-6.3125220000000004</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
       <c r="D37">
         <v>2186</v>
       </c>
@@ -1158,7 +1450,16 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="4:6">
+    <row r="38" spans="1:6" ht="15.75">
+      <c r="A38" s="2">
+        <v>53.328037999999999</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-6.3072609999999996</v>
+      </c>
+      <c r="C38">
+        <v>27</v>
+      </c>
       <c r="D38">
         <v>2187</v>
       </c>
@@ -1169,7 +1470,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="4:6">
+    <row r="39" spans="1:6" ht="15.75">
+      <c r="A39" s="2">
+        <v>53.329014000000001</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-6.3029060000000001</v>
+      </c>
+      <c r="C39">
+        <v>27</v>
+      </c>
       <c r="D39">
         <v>2188</v>
       </c>
@@ -1180,7 +1490,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="4:6">
+    <row r="40" spans="1:6" ht="15.75">
+      <c r="A40" s="2">
+        <v>53.329689000000002</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-6.300052</v>
+      </c>
+      <c r="C40">
+        <v>27</v>
+      </c>
       <c r="D40">
         <v>2189</v>
       </c>
@@ -1191,7 +1510,16 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="4:6">
+    <row r="41" spans="1:6" ht="15.75">
+      <c r="A41" s="2">
+        <v>53.330874999999999</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-6.296494</v>
+      </c>
+      <c r="C41">
+        <v>27</v>
+      </c>
       <c r="D41">
         <v>1436</v>
       </c>
@@ -1202,7 +1530,16 @@
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="4:6">
+    <row r="42" spans="1:6" ht="15.75">
+      <c r="A42" s="2">
+        <v>53.331654</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-6.294365</v>
+      </c>
+      <c r="C42">
+        <v>27</v>
+      </c>
       <c r="D42">
         <v>3952</v>
       </c>
@@ -1213,7 +1550,16 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="4:6">
+    <row r="43" spans="1:6" ht="15.75">
+      <c r="A43" s="2">
+        <v>53.332949999999997</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-6.2923039999999997</v>
+      </c>
+      <c r="C43">
+        <v>27</v>
+      </c>
       <c r="D43">
         <v>2190</v>
       </c>
@@ -1224,7 +1570,16 @@
         <v>63</v>
       </c>
     </row>
-    <row r="44" spans="4:6">
+    <row r="44" spans="1:6" ht="15.75">
+      <c r="A44" s="2">
+        <v>53.335869000000002</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-6.2892469999999996</v>
+      </c>
+      <c r="C44">
+        <v>27</v>
+      </c>
       <c r="D44">
         <v>4434</v>
       </c>
@@ -1235,7 +1590,16 @@
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="4:6">
+    <row r="45" spans="1:6" ht="15.75">
+      <c r="A45" s="2">
+        <v>53.337836000000003</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-6.2846330000000004</v>
+      </c>
+      <c r="C45">
+        <v>27</v>
+      </c>
       <c r="D45">
         <v>2379</v>
       </c>
@@ -1246,7 +1610,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="4:6">
+    <row r="46" spans="1:6" ht="15.75">
+      <c r="A46" s="2">
+        <v>53.338509000000002</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-6.2801580000000001</v>
+      </c>
+      <c r="C46">
+        <v>27</v>
+      </c>
       <c r="D46">
         <v>2380</v>
       </c>
@@ -1257,7 +1630,16 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="4:6">
+    <row r="47" spans="1:6" ht="15.75">
+      <c r="A47" s="2">
+        <v>53.338861000000001</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-6.2783790000000002</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
       <c r="D47">
         <v>2382</v>
       </c>
@@ -1268,7 +1650,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="4:6">
+    <row r="48" spans="1:6" ht="15.75">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48">
+        <v>27</v>
+      </c>
       <c r="D48">
         <v>5099</v>
       </c>
@@ -1279,7 +1666,16 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="4:6">
+    <row r="49" spans="1:6" ht="15.75">
+      <c r="A49" s="2">
+        <v>53.339455999999998</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-6.2726369999999996</v>
+      </c>
+      <c r="C49">
+        <v>27</v>
+      </c>
       <c r="D49">
         <v>2383</v>
       </c>
@@ -1290,7 +1686,16 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="4:6">
+    <row r="50" spans="1:6" ht="15.75">
+      <c r="A50" s="2">
+        <v>53.343795999999998</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-6.2694710000000002</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
       <c r="D50">
         <v>2002</v>
       </c>
@@ -1301,7 +1706,16 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="4:6">
+    <row r="51" spans="1:6" ht="15.75">
+      <c r="A51" s="2">
+        <v>53.344306000000003</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-6.262861</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
       <c r="D51">
         <v>1358</v>
       </c>
@@ -1312,7 +1726,10 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="4:6">
+    <row r="52" spans="1:6">
+      <c r="C52">
+        <v>27</v>
+      </c>
       <c r="D52">
         <v>298</v>
       </c>
@@ -1323,7 +1740,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="4:6">
+    <row r="53" spans="1:6">
+      <c r="C53">
+        <v>27</v>
+      </c>
       <c r="D53">
         <v>496</v>
       </c>
@@ -1334,7 +1754,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="4:6">
+    <row r="54" spans="1:6">
+      <c r="C54">
+        <v>27</v>
+      </c>
       <c r="D54">
         <v>497</v>
       </c>
@@ -1345,7 +1768,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="4:6">
+    <row r="55" spans="1:6">
+      <c r="C55">
+        <v>27</v>
+      </c>
       <c r="D55">
         <v>515</v>
       </c>
@@ -1356,7 +1782,10 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="4:6">
+    <row r="56" spans="1:6">
+      <c r="C56">
+        <v>27</v>
+      </c>
       <c r="D56">
         <v>516</v>
       </c>
@@ -1367,7 +1796,10 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="4:6">
+    <row r="57" spans="1:6">
+      <c r="C57">
+        <v>27</v>
+      </c>
       <c r="D57">
         <v>4384</v>
       </c>
@@ -1378,7 +1810,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="4:6">
+    <row r="58" spans="1:6">
+      <c r="C58">
+        <v>27</v>
+      </c>
       <c r="D58">
         <v>519</v>
       </c>
@@ -1389,7 +1824,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="4:6">
+    <row r="59" spans="1:6">
+      <c r="C59">
+        <v>27</v>
+      </c>
       <c r="D59">
         <v>521</v>
       </c>
@@ -1400,7 +1838,10 @@
         <v>89</v>
       </c>
     </row>
-    <row r="60" spans="4:6">
+    <row r="60" spans="1:6">
+      <c r="C60">
+        <v>27</v>
+      </c>
       <c r="D60">
         <v>522</v>
       </c>
@@ -1411,7 +1852,10 @@
         <v>91</v>
       </c>
     </row>
-    <row r="61" spans="4:6">
+    <row r="61" spans="1:6">
+      <c r="C61">
+        <v>27</v>
+      </c>
       <c r="D61">
         <v>523</v>
       </c>
@@ -1422,7 +1866,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" spans="4:6">
+    <row r="62" spans="1:6">
+      <c r="C62">
+        <v>27</v>
+      </c>
       <c r="D62">
         <v>669</v>
       </c>
@@ -1433,7 +1880,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="4:6">
+    <row r="63" spans="1:6">
+      <c r="C63">
+        <v>27</v>
+      </c>
       <c r="D63">
         <v>670</v>
       </c>
@@ -1444,7 +1894,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="4:6">
+    <row r="64" spans="1:6">
+      <c r="C64">
+        <v>27</v>
+      </c>
       <c r="D64">
         <v>671</v>
       </c>
@@ -1455,7 +1908,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="4:6">
+    <row r="65" spans="3:6">
+      <c r="C65">
+        <v>27</v>
+      </c>
       <c r="D65">
         <v>672</v>
       </c>
@@ -1466,7 +1922,10 @@
         <v>97</v>
       </c>
     </row>
-    <row r="66" spans="4:6">
+    <row r="66" spans="3:6">
+      <c r="C66">
+        <v>27</v>
+      </c>
       <c r="D66">
         <v>4382</v>
       </c>
@@ -1477,7 +1936,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="4:6">
+    <row r="67" spans="3:6">
+      <c r="C67">
+        <v>27</v>
+      </c>
       <c r="D67">
         <v>1196</v>
       </c>
@@ -1488,7 +1950,10 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" spans="4:6">
+    <row r="68" spans="3:6">
+      <c r="C68">
+        <v>27</v>
+      </c>
       <c r="D68">
         <v>1197</v>
       </c>
@@ -1499,7 +1964,10 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" spans="4:6">
+    <row r="69" spans="3:6">
+      <c r="C69">
+        <v>27</v>
+      </c>
       <c r="D69">
         <v>1198</v>
       </c>
@@ -1510,7 +1978,10 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="4:6">
+    <row r="70" spans="3:6">
+      <c r="C70">
+        <v>27</v>
+      </c>
       <c r="D70">
         <v>1199</v>
       </c>
@@ -1521,7 +1992,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="4:6">
+    <row r="71" spans="3:6">
+      <c r="C71">
+        <v>27</v>
+      </c>
       <c r="D71">
         <v>1200</v>
       </c>
@@ -1532,7 +2006,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="4:6">
+    <row r="72" spans="3:6">
+      <c r="C72">
+        <v>27</v>
+      </c>
       <c r="D72">
         <v>4385</v>
       </c>
@@ -1543,7 +2020,10 @@
         <v>104</v>
       </c>
     </row>
-    <row r="73" spans="4:6">
+    <row r="73" spans="3:6">
+      <c r="C73">
+        <v>27</v>
+      </c>
       <c r="D73">
         <v>1201</v>
       </c>
@@ -1554,7 +2034,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="4:6">
+    <row r="74" spans="3:6">
+      <c r="C74">
+        <v>27</v>
+      </c>
       <c r="D74">
         <v>4695</v>
       </c>
@@ -1565,7 +2048,10 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="4:6">
+    <row r="75" spans="3:6">
+      <c r="C75">
+        <v>27</v>
+      </c>
       <c r="D75">
         <v>1243</v>
       </c>
@@ -1576,7 +2062,10 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="4:6">
+    <row r="76" spans="3:6">
+      <c r="C76">
+        <v>27</v>
+      </c>
       <c r="D76">
         <v>4696</v>
       </c>
@@ -1587,7 +2076,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="4:6">
+    <row r="77" spans="3:6">
+      <c r="C77">
+        <v>27</v>
+      </c>
       <c r="D77">
         <v>4697</v>
       </c>
@@ -1598,7 +2090,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="4:6">
+    <row r="78" spans="3:6">
+      <c r="C78">
+        <v>27</v>
+      </c>
       <c r="D78">
         <v>1250</v>
       </c>
@@ -1609,7 +2104,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="79" spans="4:6">
+    <row r="79" spans="3:6">
+      <c r="C79">
+        <v>27</v>
+      </c>
       <c r="D79">
         <v>4698</v>
       </c>
@@ -1620,7 +2118,10 @@
         <v>114</v>
       </c>
     </row>
-    <row r="80" spans="4:6">
+    <row r="80" spans="3:6">
+      <c r="C80">
+        <v>27</v>
+      </c>
       <c r="D80">
         <v>4383</v>
       </c>
@@ -1631,7 +2132,10 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="4:6">
+    <row r="81" spans="3:6">
+      <c r="C81">
+        <v>27</v>
+      </c>
       <c r="D81">
         <v>4699</v>
       </c>
@@ -1642,7 +2146,10 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="4:6">
+    <row r="82" spans="3:6">
+      <c r="C82">
+        <v>27</v>
+      </c>
       <c r="D82">
         <v>4388</v>
       </c>
@@ -1653,7 +2160,10 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="4:6">
+    <row r="83" spans="3:6">
+      <c r="C83">
+        <v>27</v>
+      </c>
       <c r="D83">
         <v>5059</v>
       </c>
@@ -1664,7 +2174,10 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="4:6">
+    <row r="84" spans="3:6">
+      <c r="C84">
+        <v>27</v>
+      </c>
       <c r="D84">
         <v>1266</v>
       </c>
@@ -1675,7 +2188,10 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="4:6">
+    <row r="85" spans="3:6">
+      <c r="C85">
+        <v>27</v>
+      </c>
       <c r="D85">
         <v>1267</v>
       </c>
@@ -1686,7 +2202,10 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="4:6">
+    <row r="86" spans="3:6">
+      <c r="C86">
+        <v>27</v>
+      </c>
       <c r="D86">
         <v>1268</v>
       </c>
@@ -1697,7 +2216,10 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="4:6">
+    <row r="87" spans="3:6">
+      <c r="C87">
+        <v>27</v>
+      </c>
       <c r="D87">
         <v>1269</v>
       </c>
@@ -1708,7 +2230,10 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="4:6">
+    <row r="88" spans="3:6">
+      <c r="C88">
+        <v>27</v>
+      </c>
       <c r="D88">
         <v>1265</v>
       </c>
@@ -1719,7 +2244,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="89" spans="4:6">
+    <row r="89" spans="3:6">
+      <c r="C89">
+        <v>27</v>
+      </c>
       <c r="D89">
         <v>6115</v>
       </c>
@@ -1730,7 +2258,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="90" spans="4:6">
+    <row r="90" spans="3:6">
+      <c r="C90">
+        <v>27</v>
+      </c>
       <c r="D90">
         <v>4593</v>
       </c>
@@ -1741,7 +2272,10 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="4:6">
+    <row r="91" spans="3:6">
+      <c r="C91">
+        <v>27</v>
+      </c>
       <c r="D91">
         <v>4595</v>
       </c>
@@ -1754,6 +2288,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
